--- a/bank statement generator/bank_statements/statement_111.xlsx
+++ b/bank statement generator/bank_statements/statement_111.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 27.12.2023</t>
+          <t>KONTOSTAND AM 12.03.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,98 +759,146 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>29.12.</t>
+          <t>13.03.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>30.12.</t>
+          <t>14.03.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>BURGER KING Mühldorf am Inn</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>25,07-</t>
+          <t>11,26-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>31.12.</t>
+          <t>16.03.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>01.01.</t>
+          <t>17.03.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./31.12 EDEKA RO</t>
+          <t>RECHNUNG VODAFONE GMBH 26078569</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>20,95-</t>
+          <t>39,61-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>02.01.</t>
+          <t>18.03.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>03.01.</t>
+          <t>19.03.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./02.01 REWE RO</t>
+          <t>AMAZON.DE MKTPLC EU VWXGBJ</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>64,61-</t>
+          <t>190,06-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="13" t="n"/>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>20.03.</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>21.03.</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>24,99-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>24.03.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>25.03.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>ZALANDO MKTPLC EU UBEWXL</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>38,95-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="12" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>26.03.</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>27.03.</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>PAYPAL CHBHSQ</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>55,50-</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 06.01.2024</t>
+          <t>KONTOSTAND AM 29.03.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>110,63-</t>
+          <t>360,37-</t>
         </is>
       </c>
     </row>
@@ -858,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 11.01.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 08.04.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
